--- a/mbs-perturbation/nano/welm/smote/nano_welm_lin_smote_results.xlsx
+++ b/mbs-perturbation/nano/welm/smote/nano_welm_lin_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5105386416861827</v>
+        <v>0.5360824742268041</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1273584905660377</v>
+        <v>0.1436170212765958</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2053231939163498</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5115840280824923</v>
+        <v>0.4609042553191489</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.522248243559719</v>
+        <v>0.5012919896640827</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1090047393364929</v>
+        <v>0.1135135135135135</v>
       </c>
       <c r="D3" t="n">
-        <v>0.184</v>
+        <v>0.1787234042553192</v>
       </c>
       <c r="E3" t="n">
-        <v>0.470763120940846</v>
+        <v>0.425073588439925</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5070422535211268</v>
+        <v>0.5064599483204134</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1024390243902439</v>
+        <v>0.1443850267379679</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2204081632653061</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4517051098112791</v>
+        <v>0.4619251336898396</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4929577464788732</v>
+        <v>0.5012919896640827</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.1319796954314721</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2122448979591837</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4200176366843034</v>
+        <v>0.4318728292813251</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4671361502347418</v>
+        <v>0.4857881136950905</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.1374407582938389</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1368821292775665</v>
+        <v>0.2256809338521401</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4081827042353358</v>
+        <v>0.4751858035329599</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4999846070961287</v>
+        <v>0.5061829031140948</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1064070673999083</v>
+        <v>0.1341872030506776</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1749380343357529</v>
+        <v>0.213565326020236</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4524505199508513</v>
+        <v>0.4509923220526398</v>
       </c>
     </row>
   </sheetData>
